--- a/MacroExporter.source/MacroExporter.xlsx
+++ b/MacroExporter.source/MacroExporter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\GitHub\keithgull\Tools\MacroExporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF9FDCBF-386C-490B-83B0-5AC31F384DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B94FD2D7-9887-4D15-A902-E279E4BB0DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78D453FC-BAA1-4CCB-BE35-F19B90C6DC51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78D453FC-BAA1-4CCB-BE35-F19B90C6DC51}"/>
   </bookViews>
   <sheets>
     <sheet name="マクロツール" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>出力先</t>
     <rPh sb="0" eb="2">
@@ -54,9 +54,6 @@
       <t>サキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E:\Dev\GitHub\keithgull\Tools</t>
   </si>
   <si>
     <t>　　マクロExport</t>
@@ -88,10 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>E:\Dev\GitHub\keithgull\Tools\Excel一括処理ツール\Excel一括処理ツール.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Iｍportファイル格納フォルダ</t>
     <rPh sb="10" eb="12">
       <t>カクノウ</t>
@@ -99,8 +92,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>E:\Dev\GitHub\keithgull\Tools\Excel一括処理ツール</t>
-    <phoneticPr fontId="1"/>
+    <t>E:\Dev\GitHub\keithgull\Tools</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1093,10 @@
   <sheetData>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1127,35 +1119,29 @@
     </row>
     <row r="12" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
